--- a/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
+++ b/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -37,25 +37,43 @@
     <t>Success</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Initialise with development config</t>
+  </si>
+  <si>
+    <t>Initialise with Testing Config</t>
+  </si>
+  <si>
+    <t>Initialise with Production Config</t>
+  </si>
+  <si>
+    <t>Initialise with Invalid Config</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Framework\CloseAllApplications.xaml</t>
-  </si>
-  <si>
-    <t>Test_Framework\Test_ProcessTransaction.xaml</t>
-  </si>
-  <si>
-    <t>Framework\InitAllSettings.xaml</t>
-  </si>
-  <si>
-    <t>Framework\InitAllApplications.xaml</t>
+    <t>Arguments</t>
+  </si>
+  <si>
+    <t>Test_Framework\Test_InitAllSettings.xaml</t>
+  </si>
+  <si>
+    <t>Data\ConfigDev.xlsx</t>
+  </si>
+  <si>
+    <t>Data\ConfigUat.xlsx</t>
+  </si>
+  <si>
+    <t>Data\ConfigPrd.xlsx</t>
+  </si>
+  <si>
+    <t>Data\ConfigInvalid.xlsx</t>
   </si>
 </sst>
 </file>
@@ -107,10 +125,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,177 +417,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="173.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B27">
@@ -575,241 +531,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="135.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="164.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -820,5 +640,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
+++ b/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -74,6 +74,27 @@
   </si>
   <si>
     <t>Data\ConfigInvalid.xlsx</t>
+  </si>
+  <si>
+    <t>Test_Framework\Test_AppEmail.xaml</t>
+  </si>
+  <si>
+    <t>Check Dev exchange folders</t>
+  </si>
+  <si>
+    <t>Check testing exchange folders</t>
+  </si>
+  <si>
+    <t>Check production account and exchange folders</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>\Test_Framework\Test_AppEmail.xaml</t>
+  </si>
+  <si>
+    <t>AppEx: Folder not found. at Source: Get Exchange Robot Invalid</t>
   </si>
 </sst>
 </file>
@@ -420,7 +441,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +527,49 @@
       </c>
       <c r="E5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -531,10 +595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +606,7 @@
     <col min="1" max="1" width="44.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="164.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -631,6 +695,59 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="D9"/>
+      <c r="E9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>

--- a/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
+++ b/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Arguments</t>
   </si>
   <si>
-    <t>Test_Framework\Test_InitAllSettings.xaml</t>
-  </si>
-  <si>
     <t>Data\ConfigDev.xlsx</t>
   </si>
   <si>
@@ -76,32 +73,126 @@
     <t>Data\ConfigInvalid.xlsx</t>
   </si>
   <si>
-    <t>Test_Framework\Test_AppEmail.xaml</t>
-  </si>
-  <si>
-    <t>Check Dev exchange folders</t>
-  </si>
-  <si>
-    <t>Check testing exchange folders</t>
-  </si>
-  <si>
     <t>Check production account and exchange folders</t>
   </si>
   <si>
+    <t>\Test_Framework\Test_LoginToMSPUniFi.xaml</t>
+  </si>
+  <si>
+    <t>Check development UniFi login</t>
+  </si>
+  <si>
+    <t>Check production UniFi login</t>
+  </si>
+  <si>
+    <t>Check testing account and exchange folders</t>
+  </si>
+  <si>
+    <t>Check development account and exchange folders</t>
+  </si>
+  <si>
+    <t>Proforma-DEV-Exchange,Inbox,Development\Proforma\Robot In,Development\Proforma\Robot Out,Development\Proforma\Robot Error</t>
+  </si>
+  <si>
+    <t>Proforma-DEV-Exchange,NoInbox</t>
+  </si>
+  <si>
+    <t>Check than an invalid folder throws an error (Cannot have NoInbox as  folder name in the account specified by Proforma-DEV-Exchange</t>
+  </si>
+  <si>
+    <t>Proforma-UAT-Exchange,Inbox,Robot In,Robot Out,Robot Error</t>
+  </si>
+  <si>
+    <t>Proforma-PRD-Exchange,Inbox,Robot In,Robot Out,Robot Error</t>
+  </si>
+  <si>
+    <t>No exception thrown</t>
+  </si>
+  <si>
+    <t>Test_Framework\Test_0.0_InitAllSettings.xaml</t>
+  </si>
+  <si>
+    <t>\Test_Framework\Test_0.0_InitAllSettings.xaml</t>
+  </si>
+  <si>
+    <t>Test_Framework\Test_CheckEmail.xaml</t>
+  </si>
+  <si>
+    <t>\Test_Framework\Test_CheckEmail.xaml</t>
+  </si>
+  <si>
+    <t>Test_Framework\Test_SearchRMNumber.xaml</t>
+  </si>
+  <si>
+    <t>200000199</t>
+  </si>
+  <si>
+    <t>2018001812</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>\Test_Framework\Test_AppEmail.xaml</t>
-  </si>
-  <si>
-    <t>AppEx: Folder not found. at Source: Get Exchange Robot Invalid</t>
+    <t>201100215</t>
+  </si>
+  <si>
+    <t>Global search of proposals</t>
+  </si>
+  <si>
+    <t>Should bring up multiple results (Dec 2019)</t>
+  </si>
+  <si>
+    <t>No results (Dec 2019)</t>
+  </si>
+  <si>
+    <t>Single result (Dec 2019)</t>
+  </si>
+  <si>
+    <t>No edit results (Dec 2019)</t>
+  </si>
+  <si>
+    <t>BRE</t>
+  </si>
+  <si>
+    <t>Wasn't meant to throw BRE: System.Activities.Statements.WorkflowTerminatedException: NoInbox ---&gt; UiPath.Mail.ExchangeException: Folder not found._x000D_
+   at UiPath.Mail.Exchange.Activities.ExchangeActivity`1.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)_x000D_
+   --- End of inner exception stack trace ---_x000D_
+   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
+   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
+  </si>
+  <si>
+    <t>Wasn't meant to throw BRE: System.Activities.Statements.WorkflowTerminatedException: 10.2-11.3	No Updated Entries_x000D_
+I wasn't able to update global as the rows were: , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , _x000D_
+   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
+   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
+  </si>
+  <si>
+    <t>Wasn't meant to throw BRE: System.Activities.Statements.WorkflowTerminatedException: No matching values were found._x000D_
+   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
+   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
+  </si>
+  <si>
+    <t>Should throw BRE: System.Activities.Statements.WorkflowTerminatedException: 10.2-11.3	No Updated Entries_x000D_
+I wasn't able to update 201100215 as the rows were: , , , , , _x000D_
+   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
+   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +216,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -158,6 +255,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,18 +544,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="173.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -462,7 +568,7 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -471,14 +577,14 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -486,14 +592,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" t="s">
-        <v>14</v>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -501,14 +607,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -516,14 +622,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -531,60 +637,164 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2018001377</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="4:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="4:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B10:B28">
       <formula1>"Success,BRE,AppEx"</formula1>
     </dataValidation>
   </dataValidations>
@@ -598,20 +808,20 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="164.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -621,7 +831,7 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -630,7 +840,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -638,16 +848,16 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -655,99 +865,111 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2018001377</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5">
+        <v>200000199</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="D9"/>
-      <c r="E9"/>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2018001812</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>201100215</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>

--- a/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
+++ b/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,11 +787,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
       <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="4:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="4:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B10:B28">
@@ -807,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
+++ b/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Check production account and exchange folders</t>
   </si>
   <si>
-    <t>\Test_Framework\Test_LoginToMSPUniFi.xaml</t>
-  </si>
-  <si>
     <t>Check development UniFi login</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Proforma-DEV-Exchange,NoInbox</t>
   </si>
   <si>
-    <t>Check than an invalid folder throws an error (Cannot have NoInbox as  folder name in the account specified by Proforma-DEV-Exchange</t>
-  </si>
-  <si>
     <t>Proforma-UAT-Exchange,Inbox,Robot In,Robot Out,Robot Error</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
   </si>
   <si>
     <t>Test_Framework\Test_0.0_InitAllSettings.xaml</t>
-  </si>
-  <si>
-    <t>\Test_Framework\Test_0.0_InitAllSettings.xaml</t>
   </si>
   <si>
     <t>Test_Framework\Test_CheckEmail.xaml</t>
@@ -186,6 +177,45 @@
    at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
    at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
    at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
+  </si>
+  <si>
+    <t>Proforma-DEV-Exchange,Bad Mail Folder</t>
+  </si>
+  <si>
+    <t>Check than an invalid folder throws an error (Cannot have Bad Mail Folder as  folder name in the account specified by Proforma-DEV-Exchange</t>
+  </si>
+  <si>
+    <t>Test_Framework\Test_InitAllSettings.xaml</t>
+  </si>
+  <si>
+    <t>\Test_Framework\Test_InitAllSettings.xaml</t>
+  </si>
+  <si>
+    <t>Test_Framework\Test_LoginToUniFi.xaml</t>
+  </si>
+  <si>
+    <t>\Test_Framework\Test_LoginToUniFi.xaml</t>
+  </si>
+  <si>
+    <t>Proforma-DEV-UniFi,https://fs92rept.dev.unifi.uq.edu.au/psp/ps/?cmd=login</t>
+  </si>
+  <si>
+    <t>Proforma-PRD-UniFi,https://fs92rept.dev.unifi.uq.edu.au/psp/ps/?cmd=login</t>
+  </si>
+  <si>
+    <t>Grants\Proposals\Maintain Staged Proposals</t>
+  </si>
+  <si>
+    <t>Grants\Proposals\Invalid Selection</t>
+  </si>
+  <si>
+    <t>Can I navigate to maintain staged proposals</t>
+  </si>
+  <si>
+    <t>Is an error thrown if I try to navigate somewhere bad</t>
+  </si>
+  <si>
+    <t>Test_Framework\Test_NavToMenuItem.xaml</t>
   </si>
 </sst>
 </file>
@@ -547,12 +577,12 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64" customWidth="1"/>
@@ -577,7 +607,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -592,7 +622,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -607,7 +637,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -622,7 +652,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -637,42 +667,42 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -680,130 +710,157 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="8">
-        <v>2018001377</v>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>34</v>
+      <c r="D15" s="8">
+        <v>2018001377</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
         <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="20" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B10:B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B23:B30 B10:B20">
       <formula1>"Success,BRE,AppEx"</formula1>
     </dataValidation>
   </dataValidations>
@@ -816,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -849,7 +906,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -861,12 +918,12 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -875,46 +932,46 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -926,29 +983,29 @@
         <v>2018001377</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5">
         <v>200000199</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -960,15 +1017,15 @@
         <v>2018001812</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -977,7 +1034,7 @@
         <v>201100215</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
+++ b/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Initialise with development config</t>
-  </si>
-  <si>
     <t>Initialise with Testing Config</t>
   </si>
   <si>
@@ -61,18 +58,6 @@
     <t>Arguments</t>
   </si>
   <si>
-    <t>Data\ConfigDev.xlsx</t>
-  </si>
-  <si>
-    <t>Data\ConfigUat.xlsx</t>
-  </si>
-  <si>
-    <t>Data\ConfigPrd.xlsx</t>
-  </si>
-  <si>
-    <t>Data\ConfigInvalid.xlsx</t>
-  </si>
-  <si>
     <t>Check production account and exchange folders</t>
   </si>
   <si>
@@ -88,33 +73,12 @@
     <t>Check development account and exchange folders</t>
   </si>
   <si>
-    <t>Proforma-DEV-Exchange,Inbox,Development\Proforma\Robot In,Development\Proforma\Robot Out,Development\Proforma\Robot Error</t>
-  </si>
-  <si>
-    <t>Proforma-DEV-Exchange,NoInbox</t>
-  </si>
-  <si>
-    <t>Proforma-UAT-Exchange,Inbox,Robot In,Robot Out,Robot Error</t>
-  </si>
-  <si>
-    <t>Proforma-PRD-Exchange,Inbox,Robot In,Robot Out,Robot Error</t>
-  </si>
-  <si>
     <t>No exception thrown</t>
   </si>
   <si>
-    <t>Test_Framework\Test_0.0_InitAllSettings.xaml</t>
-  </si>
-  <si>
     <t>Test_Framework\Test_CheckEmail.xaml</t>
   </si>
   <si>
-    <t>\Test_Framework\Test_CheckEmail.xaml</t>
-  </si>
-  <si>
-    <t>Test_Framework\Test_SearchRMNumber.xaml</t>
-  </si>
-  <si>
     <t>200000199</t>
   </si>
   <si>
@@ -145,7 +109,81 @@
     <t>BRE</t>
   </si>
   <si>
-    <t>Wasn't meant to throw BRE: System.Activities.Statements.WorkflowTerminatedException: NoInbox ---&gt; UiPath.Mail.ExchangeException: Folder not found._x000D_
+    <t>Check than an invalid folder throws an error (Cannot have Bad Mail Folder as  folder name in the account specified by Proforma-DEV-Exchange</t>
+  </si>
+  <si>
+    <t>Test_Framework\Test_InitAllSettings.xaml</t>
+  </si>
+  <si>
+    <t>\Test_Framework\Test_InitAllSettings.xaml</t>
+  </si>
+  <si>
+    <t>\Test_Framework\Test_LoginToUniFi.xaml</t>
+  </si>
+  <si>
+    <t>Proforma-DEV-UniFi,https://fs92rept.dev.unifi.uq.edu.au/psp/ps/?cmd=login</t>
+  </si>
+  <si>
+    <t>Grants\Proposals\Maintain Staged Proposals</t>
+  </si>
+  <si>
+    <t>Grants\Proposals\Invalid Selection</t>
+  </si>
+  <si>
+    <t>Can I navigate to maintain staged proposals</t>
+  </si>
+  <si>
+    <t>Is an error thrown if I try to navigate somewhere bad</t>
+  </si>
+  <si>
+    <t>Initialise config</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>BAD</t>
+  </si>
+  <si>
+    <t>SSO_rpa00002,Bad Mail Folder</t>
+  </si>
+  <si>
+    <t>SSO_RPA_Sam,Inbox,Development\Proforma\Robot In,Development\Proforma\Robot Out,Development\Proforma\Robot Error</t>
+  </si>
+  <si>
+    <t>\Test_Framework\Test_NavToMenuItem.xaml</t>
+  </si>
+  <si>
+    <t>\Test_Framework\Test_SearchRMNumber.xaml</t>
+  </si>
+  <si>
+    <t>SSO_rpa00002,Inbox,contractandgrants@uq.edu.au\Inbox,contractandgrants@uq.edu.au\Inbox\Minion,contractandgrants@uq.edu.au\Inbox\Minion\Testing,contractandgrants@uq.edu.au\Inbox\Minion\Testing\Robot In,contractandgrants@uq.edu.au\Inbox\Minion\Testing\Robot Out,contractandgrants@uq.edu.au\Inbox\Minion\Testing\Robot Error</t>
+  </si>
+  <si>
+    <t>SSO_rpa00002,Inbox,contractandgrants@uq.edu.au\Inbox,contractandgrants@uq.edu.au\Inbox\Minion,contractandgrants@uq.edu.au\Inbox\Minion\Robot In,contractandgrants@uq.edu.au\Inbox\Minion\Robot Error</t>
+  </si>
+  <si>
+    <t>Wasn't meant to throw AppEx: System.IO.IOException: The process cannot access the file 'C:\UiPath\RpaUiPathProcess\Processes\RPATask1-ChartStringProformaDetail\Data\Config.xlsx' because it is being used by another process._x000D_
+   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
+   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
+  </si>
+  <si>
+    <t>Should throw AppEx: System.IO.IOException: The process cannot access the file 'C:\UiPath\RpaUiPathProcess\Processes\RPATask1-ChartStringProformaDetail\Data\Config.xlsx' because it is being used by another process._x000D_
+   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
+   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
+  </si>
+  <si>
+    <t>Should throw AppEx: System.ApplicationException: Bad Mail Folder ---&gt; UiPath.Mail.ExchangeException: Folder not found._x000D_
    at UiPath.Mail.Exchange.Activities.ExchangeActivity`1.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
    at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
    at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)_x000D_
@@ -154,68 +192,6 @@
    at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
    at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
    at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
-  </si>
-  <si>
-    <t>Wasn't meant to throw BRE: System.Activities.Statements.WorkflowTerminatedException: 10.2-11.3	No Updated Entries_x000D_
-I wasn't able to update global as the rows were: , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , , _x000D_
-   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
-   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
-  </si>
-  <si>
-    <t>Wasn't meant to throw BRE: System.Activities.Statements.WorkflowTerminatedException: No matching values were found._x000D_
-   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
-   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
-  </si>
-  <si>
-    <t>Should throw BRE: System.Activities.Statements.WorkflowTerminatedException: 10.2-11.3	No Updated Entries_x000D_
-I wasn't able to update 201100215 as the rows were: , , , , , _x000D_
-   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
-   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
-  </si>
-  <si>
-    <t>Proforma-DEV-Exchange,Bad Mail Folder</t>
-  </si>
-  <si>
-    <t>Check than an invalid folder throws an error (Cannot have Bad Mail Folder as  folder name in the account specified by Proforma-DEV-Exchange</t>
-  </si>
-  <si>
-    <t>Test_Framework\Test_InitAllSettings.xaml</t>
-  </si>
-  <si>
-    <t>\Test_Framework\Test_InitAllSettings.xaml</t>
-  </si>
-  <si>
-    <t>Test_Framework\Test_LoginToUniFi.xaml</t>
-  </si>
-  <si>
-    <t>\Test_Framework\Test_LoginToUniFi.xaml</t>
-  </si>
-  <si>
-    <t>Proforma-DEV-UniFi,https://fs92rept.dev.unifi.uq.edu.au/psp/ps/?cmd=login</t>
-  </si>
-  <si>
-    <t>Proforma-PRD-UniFi,https://fs92rept.dev.unifi.uq.edu.au/psp/ps/?cmd=login</t>
-  </si>
-  <si>
-    <t>Grants\Proposals\Maintain Staged Proposals</t>
-  </si>
-  <si>
-    <t>Grants\Proposals\Invalid Selection</t>
-  </si>
-  <si>
-    <t>Can I navigate to maintain staged proposals</t>
-  </si>
-  <si>
-    <t>Is an error thrown if I try to navigate somewhere bad</t>
-  </si>
-  <si>
-    <t>Test_Framework\Test_NavToMenuItem.xaml</t>
   </si>
 </sst>
 </file>
@@ -576,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -607,191 +583,191 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -800,61 +776,61 @@
         <v>2018001377</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -871,10 +847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,61 +874,55 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -960,81 +930,218 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2018001377</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5">
-        <v>200000199</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2018001377</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>200000199</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
         <v>2018001812</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5">
         <v>201100215</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
+++ b/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="50">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -167,20 +167,6 @@
   </si>
   <si>
     <t>SSO_rpa00002,Inbox,contractandgrants@uq.edu.au\Inbox,contractandgrants@uq.edu.au\Inbox\Minion,contractandgrants@uq.edu.au\Inbox\Minion\Robot In,contractandgrants@uq.edu.au\Inbox\Minion\Robot Error</t>
-  </si>
-  <si>
-    <t>Wasn't meant to throw AppEx: System.IO.IOException: The process cannot access the file 'C:\UiPath\RpaUiPathProcess\Processes\RPATask1-ChartStringProformaDetail\Data\Config.xlsx' because it is being used by another process._x000D_
-   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
-   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
-  </si>
-  <si>
-    <t>Should throw AppEx: System.IO.IOException: The process cannot access the file 'C:\UiPath\RpaUiPathProcess\Processes\RPATask1-ChartStringProformaDetail\Data\Config.xlsx' because it is being used by another process._x000D_
-   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
-   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
   </si>
   <si>
     <t>Should throw AppEx: System.ApplicationException: Bad Mail Folder ---&gt; UiPath.Mail.ExchangeException: Folder not found._x000D_
@@ -192,6 +178,9 @@
    at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
    at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
    at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
+  </si>
+  <si>
+    <t>An exception was meant to be thrown</t>
   </si>
 </sst>
 </file>
@@ -553,7 +542,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -888,13 +877,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -933,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>41</v>
@@ -1007,7 +996,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
+++ b/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -76,9 +76,6 @@
     <t>No exception thrown</t>
   </si>
   <si>
-    <t>Test_Framework\Test_CheckEmail.xaml</t>
-  </si>
-  <si>
     <t>200000199</t>
   </si>
   <si>
@@ -109,15 +106,9 @@
     <t>BRE</t>
   </si>
   <si>
-    <t>Check than an invalid folder throws an error (Cannot have Bad Mail Folder as  folder name in the account specified by Proforma-DEV-Exchange</t>
-  </si>
-  <si>
     <t>Test_Framework\Test_InitAllSettings.xaml</t>
   </si>
   <si>
-    <t>\Test_Framework\Test_InitAllSettings.xaml</t>
-  </si>
-  <si>
     <t>\Test_Framework\Test_LoginToUniFi.xaml</t>
   </si>
   <si>
@@ -151,28 +142,61 @@
     <t>BAD</t>
   </si>
   <si>
-    <t>SSO_rpa00002,Bad Mail Folder</t>
-  </si>
-  <si>
-    <t>SSO_RPA_Sam,Inbox,Development\Proforma\Robot In,Development\Proforma\Robot Out,Development\Proforma\Robot Error</t>
-  </si>
-  <si>
     <t>\Test_Framework\Test_NavToMenuItem.xaml</t>
   </si>
   <si>
     <t>\Test_Framework\Test_SearchRMNumber.xaml</t>
   </si>
   <si>
-    <t>SSO_rpa00002,Inbox,contractandgrants@uq.edu.au\Inbox,contractandgrants@uq.edu.au\Inbox\Minion,contractandgrants@uq.edu.au\Inbox\Minion\Testing,contractandgrants@uq.edu.au\Inbox\Minion\Testing\Robot In,contractandgrants@uq.edu.au\Inbox\Minion\Testing\Robot Out,contractandgrants@uq.edu.au\Inbox\Minion\Testing\Robot Error</t>
-  </si>
-  <si>
-    <t>SSO_rpa00002,Inbox,contractandgrants@uq.edu.au\Inbox,contractandgrants@uq.edu.au\Inbox\Minion,contractandgrants@uq.edu.au\Inbox\Minion\Robot In,contractandgrants@uq.edu.au\Inbox\Minion\Robot Error</t>
-  </si>
-  <si>
-    <t>Should throw AppEx: System.ApplicationException: Bad Mail Folder ---&gt; UiPath.Mail.ExchangeException: Folder not found._x000D_
-   at UiPath.Mail.Exchange.Activities.ExchangeActivity`1.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)_x000D_
+    <t>An exception was meant to be thrown</t>
+  </si>
+  <si>
+    <t>Test_Framework\Exchange\Test_GetExchangeMail.xaml</t>
+  </si>
+  <si>
+    <t>SSO_RPA_Sam,https://outlook.office365.com/EWS/Exchange.asmx,Development\Proforma\Robot In,Development\Proforma\Robot Out,Development\Proforma\Robot Error</t>
+  </si>
+  <si>
+    <t>SSO_rpa00002,https://outlook.office365.com/EWS/Exchange.asmx,contractandgrants@uq.edu.au\Inbox\Minion - GRL Proforma\Testing,contractandgrants@uq.edu.au\Inbox\Minion - GRL Proforma\Testing\New,contractandgrants@uq.edu.au\Inbox\Minion - GRL Proforma\Testing\Error</t>
+  </si>
+  <si>
+    <t>SSO_rpa00002,https://outlook.office365.com/EWS/Exchange.asmx,contractandgrants@uq.edu.au\Inbox\Minion - GRL Proforma\New,contractandgrants@uq.edu.au\Inbox\Minion - GRL Proforma\Error</t>
+  </si>
+  <si>
+    <t>Proforma-DEV-BadCreds,https://outlook.office365.com/EWS/Exchange.asmx,contractandgrants@uq.edu.au\Inbox\Minion - GRL Proforma\Testing</t>
+  </si>
+  <si>
+    <t>SSO_rpa00002,https://invalid.office365.com/EWS/Exchange.asmx,contractandgrants@uq.edu.au\Inbox\Minion - GRL Proforma\Testing</t>
+  </si>
+  <si>
+    <t>Check invalid username and password</t>
+  </si>
+  <si>
+    <t>Check invalid exchange URI</t>
+  </si>
+  <si>
+    <t>SSO_rpa00002,https://outlook.office365.com/EWS/Exchange.asmx,contractandbadss@uq.edu.au\Inbox\Minion - GRL Proforma\Testing</t>
+  </si>
+  <si>
+    <t>Check incorrect shared mailbox</t>
+  </si>
+  <si>
+    <t>SSO_rpa00002,https://outlook.office365.com/EWS/Exchange.asmx,contractandgrants@uq.edu.au\Inbox\Minion - Incorrect Path\Testing</t>
+  </si>
+  <si>
+    <t>Check incorrect mailbox path</t>
+  </si>
+  <si>
+    <t>Check excess mailbox path</t>
+  </si>
+  <si>
+    <t>SSO_rpa00002,https://outlook.office365.com/EWS/Exchange.asmx,contractandgrants@uq.edu.au\Inbox\Minion - GRL Proforma\Testing\Excess Mailbox Path</t>
+  </si>
+  <si>
+    <t>Should throw AppEx: Microsoft.Exchange.WebServices.Data.ServiceRequestException: The request failed. The remote server returned an error: (503) Server Unavailable. ---&gt; System.Net.WebException: The remote server returned an error: (503) Server Unavailable._x000D_
+   at System.Net.HttpWebRequest.GetResponse()_x000D_
+   at Microsoft.Exchange.WebServices.Data.EwsHttpWebRequest.Microsoft.Exchange.WebServices.Data.IEwsHttpWebRequest.GetResponse() in \\REDMOND\EXCHANGE\BUILD\E15\15.00.0913.015\SOURCES\sources\dev\EwsManagedApi\src\EwsManagedApi\Core\EwsHttpWebRequest.cs:line 113_x000D_
+   at Microsoft.Exchange.WebServices.Data.ServiceRequestBase.GetEwsHttpWebResponse(IEwsHttpWebRequest request) in \\REDMOND\EXCHANGE\BUILD\E15\15.00.0913.015\SOURCES\sources\dev\EwsManagedApi\src\EwsManagedApi\Core\Requests\ServiceRequestBase.cs:line 821_x000D_
    --- End of inner exception stack trace ---_x000D_
    at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
    at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
@@ -180,7 +204,44 @@
    at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
   </si>
   <si>
-    <t>An exception was meant to be thrown</t>
+    <t>Should throw AppEx: Microsoft.Exchange.WebServices.Data.ServiceRequestException: The request failed. The remote name could not be resolved: 'invalid.office365.com' ---&gt; System.Net.WebException: The remote name could not be resolved: 'invalid.office365.com'_x000D_
+   at System.Net.HttpWebRequest.EndGetRequestStream(IAsyncResult asyncResult, TransportContext&amp; context)_x000D_
+   at System.Net.HttpWebRequest.EndGetRequestStream(IAsyncResult asyncResult)_x000D_
+   at Microsoft.Exchange.WebServices.Data.EwsHttpWebRequest.Microsoft.Exchange.WebServices.Data.IEwsHttpWebRequest.EndGetRequestStream(IAsyncResult asyncResult) in \\REDMOND\EXCHANGE\BUILD\E15\15.00.0913.015\SOURCES\sources\dev\EwsManagedApi\src\EwsManagedApi\Core\EwsHttpWebRequest.cs:line 79_x000D_
+   at Microsoft.Exchange.WebServices.Data.ServiceRequestBase.EmitRequest(IEwsHttpWebRequest request) in \\REDMOND\EXCHANGE\BUILD\E15\15.00.0913.015\SOURCES\sources\dev\EwsManagedApi\src\EwsManagedApi\Core\Requests\ServiceRequestBase.cs:line 413_x000D_
+   at Microsoft.Exchange.WebServices.Data.ServiceRequestBase.BuildEwsHttpWebRequest() in \\REDMOND\EXCHANGE\BUILD\E15\15.00.0913.015\SOURCES\sources\dev\EwsManagedApi\src\EwsManagedApi\Core\Requests\ServiceRequestBase.cs:line 790_x000D_
+   --- End of inner exception stack trace ---_x000D_
+   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
+   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
+  </si>
+  <si>
+    <t>Should throw AppEx: Microsoft.Exchange.WebServices.Data.ServiceResponseException: The SMTP address has no mailbox associated with it._x000D_
+   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
+   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
+  </si>
+  <si>
+    <t>Should throw AppEx: System.Exception: Couldn't find Minion - Incorrect Path_x000D_
+   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
+   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
+  </si>
+  <si>
+    <t>Should throw AppEx: System.Exception: Couldn't find Excess Mailbox Path_x000D_
+   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
+   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
+  </si>
+  <si>
+    <t>Test_Framework\Test_LoginToUniFi.xaml</t>
+  </si>
+  <si>
+    <t>SSO_rpa00002,https://fs92rept.dev.unifi.uq.edu.au/psp/ps/?cmd=login</t>
   </si>
 </sst>
 </file>
@@ -238,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -254,7 +315,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -539,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,29 +632,29 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -602,14 +662,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -617,215 +677,281 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>46</v>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>47</v>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>34</v>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2018001377</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2018001377</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B23:B30 B10:B20">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B27 B30:B37 B2:B12">
       <formula1>"Success,BRE,AppEx"</formula1>
     </dataValidation>
   </dataValidations>
@@ -836,10 +962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +997,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -880,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -888,78 +1014,71 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -967,176 +1086,261 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2018001377</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>200000199</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
-        <v>2018001812</v>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="5">
-        <v>201100215</v>
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2018001377</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>200000199</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2018001812</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5">
+        <v>201100215</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
       <formula1>"Success,BRE,AppEx"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
+++ b/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/_Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Initialise with Invalid Config</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>Arguments</t>
   </si>
   <si>
@@ -73,18 +70,12 @@
     <t>Check development account and exchange folders</t>
   </si>
   <si>
-    <t>No exception thrown</t>
-  </si>
-  <si>
     <t>200000199</t>
   </si>
   <si>
     <t>2018001812</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>201100215</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>DEV</t>
   </si>
   <si>
-    <t>UAT</t>
-  </si>
-  <si>
     <t>PRD</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>\Test_Framework\Test_SearchRMNumber.xaml</t>
   </si>
   <si>
-    <t>An exception was meant to be thrown</t>
-  </si>
-  <si>
     <t>Test_Framework\Exchange\Test_GetExchangeMail.xaml</t>
   </si>
   <si>
@@ -193,55 +178,16 @@
     <t>SSO_rpa00002,https://outlook.office365.com/EWS/Exchange.asmx,contractandgrants@uq.edu.au\Inbox\Minion - GRL Proforma\Testing\Excess Mailbox Path</t>
   </si>
   <si>
-    <t>Should throw AppEx: Microsoft.Exchange.WebServices.Data.ServiceRequestException: The request failed. The remote server returned an error: (503) Server Unavailable. ---&gt; System.Net.WebException: The remote server returned an error: (503) Server Unavailable._x000D_
-   at System.Net.HttpWebRequest.GetResponse()_x000D_
-   at Microsoft.Exchange.WebServices.Data.EwsHttpWebRequest.Microsoft.Exchange.WebServices.Data.IEwsHttpWebRequest.GetResponse() in \\REDMOND\EXCHANGE\BUILD\E15\15.00.0913.015\SOURCES\sources\dev\EwsManagedApi\src\EwsManagedApi\Core\EwsHttpWebRequest.cs:line 113_x000D_
-   at Microsoft.Exchange.WebServices.Data.ServiceRequestBase.GetEwsHttpWebResponse(IEwsHttpWebRequest request) in \\REDMOND\EXCHANGE\BUILD\E15\15.00.0913.015\SOURCES\sources\dev\EwsManagedApi\src\EwsManagedApi\Core\Requests\ServiceRequestBase.cs:line 821_x000D_
-   --- End of inner exception stack trace ---_x000D_
-   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
-   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
-  </si>
-  <si>
-    <t>Should throw AppEx: Microsoft.Exchange.WebServices.Data.ServiceRequestException: The request failed. The remote name could not be resolved: 'invalid.office365.com' ---&gt; System.Net.WebException: The remote name could not be resolved: 'invalid.office365.com'_x000D_
-   at System.Net.HttpWebRequest.EndGetRequestStream(IAsyncResult asyncResult, TransportContext&amp; context)_x000D_
-   at System.Net.HttpWebRequest.EndGetRequestStream(IAsyncResult asyncResult)_x000D_
-   at Microsoft.Exchange.WebServices.Data.EwsHttpWebRequest.Microsoft.Exchange.WebServices.Data.IEwsHttpWebRequest.EndGetRequestStream(IAsyncResult asyncResult) in \\REDMOND\EXCHANGE\BUILD\E15\15.00.0913.015\SOURCES\sources\dev\EwsManagedApi\src\EwsManagedApi\Core\EwsHttpWebRequest.cs:line 79_x000D_
-   at Microsoft.Exchange.WebServices.Data.ServiceRequestBase.EmitRequest(IEwsHttpWebRequest request) in \\REDMOND\EXCHANGE\BUILD\E15\15.00.0913.015\SOURCES\sources\dev\EwsManagedApi\src\EwsManagedApi\Core\Requests\ServiceRequestBase.cs:line 413_x000D_
-   at Microsoft.Exchange.WebServices.Data.ServiceRequestBase.BuildEwsHttpWebRequest() in \\REDMOND\EXCHANGE\BUILD\E15\15.00.0913.015\SOURCES\sources\dev\EwsManagedApi\src\EwsManagedApi\Core\Requests\ServiceRequestBase.cs:line 790_x000D_
-   --- End of inner exception stack trace ---_x000D_
-   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
-   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
-  </si>
-  <si>
-    <t>Should throw AppEx: Microsoft.Exchange.WebServices.Data.ServiceResponseException: The SMTP address has no mailbox associated with it._x000D_
-   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
-   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
-  </si>
-  <si>
-    <t>Should throw AppEx: System.Exception: Couldn't find Minion - Incorrect Path_x000D_
-   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
-   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
-  </si>
-  <si>
-    <t>Should throw AppEx: System.Exception: Couldn't find Excess Mailbox Path_x000D_
-   at UiPath.Executor.WorkflowRunner.EndExecute(IAsyncResult result) in D:\a\1\s\Robot\UiPath.Executor\WorkflowRuntime.cs:line 208_x000D_
-   at UiPath.Core.Activities.InvokeWorkflowFile.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)_x000D_
-   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</t>
-  </si>
-  <si>
     <t>Test_Framework\Test_LoginToUniFi.xaml</t>
   </si>
   <si>
     <t>SSO_rpa00002,https://fs92rept.dev.unifi.uq.edu.au/psp/ps/?cmd=login</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Proforma-TEST-UniFi,https://fs92rept.dev.unifi.uq.edu.au/psp/ps/?cmd=login</t>
   </si>
 </sst>
 </file>
@@ -599,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -632,29 +578,29 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="8" t="s">
-        <v>36</v>
+      <c r="D3" t="s">
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -662,14 +608,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -677,14 +623,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -695,115 +641,115 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,146 +758,160 @@
     </row>
     <row r="16" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="9"/>
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
         <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
+      <c r="D21" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="8">
-        <v>2018001377</v>
-      </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2018001377</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B27 B30:B37 B2:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 B31:B38 B16:B28">
       <formula1>"Success,BRE,AppEx"</formula1>
     </dataValidation>
   </dataValidations>
@@ -962,10 +922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,78 +949,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,274 +960,26 @@
       <c r="B6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5">
-        <v>2018001377</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>200000199</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2018001812</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="5">
-        <v>201100215</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
